--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H2">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I2">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J2">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N2">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O2">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P2">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q2">
-        <v>907.2473288748158</v>
+        <v>1574.419101510862</v>
       </c>
       <c r="R2">
-        <v>8165.225959873343</v>
+        <v>14169.77191359776</v>
       </c>
       <c r="S2">
-        <v>0.5105717373036652</v>
+        <v>0.6164049439099268</v>
       </c>
       <c r="T2">
-        <v>0.5105717373036653</v>
+        <v>0.6164049439099267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H3">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I3">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J3">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>155.120125</v>
       </c>
       <c r="O3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P3">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q3">
-        <v>201.3122611828749</v>
+        <v>304.9857798280278</v>
       </c>
       <c r="R3">
-        <v>1811.810350645875</v>
+        <v>2744.87201845225</v>
       </c>
       <c r="S3">
-        <v>0.1132925362923302</v>
+        <v>0.1194057810450947</v>
       </c>
       <c r="T3">
-        <v>0.1132925362923302</v>
+        <v>0.1194057810450947</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H4">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I4">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J4">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N4">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P4">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q4">
-        <v>34.138995524941</v>
+        <v>45.59381359430778</v>
       </c>
       <c r="R4">
-        <v>307.2509597244689</v>
+        <v>410.34432234877</v>
       </c>
       <c r="S4">
-        <v>0.01921240845821908</v>
+        <v>0.01785055331472364</v>
       </c>
       <c r="T4">
-        <v>0.01921240845821908</v>
+        <v>0.01785055331472364</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H5">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I5">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J5">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N5">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O5">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P5">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q5">
-        <v>15.47560805095</v>
+        <v>21.54167760654333</v>
       </c>
       <c r="R5">
-        <v>139.28047245855</v>
+        <v>193.87509845889</v>
       </c>
       <c r="S5">
-        <v>0.008709210638518599</v>
+        <v>0.008433838591036339</v>
       </c>
       <c r="T5">
-        <v>0.008709210638518601</v>
+        <v>0.008433838591036339</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.893348999999999</v>
+        <v>5.898379333333334</v>
       </c>
       <c r="H6">
-        <v>11.680047</v>
+        <v>17.695138</v>
       </c>
       <c r="I6">
-        <v>0.6666012053219901</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="J6">
-        <v>0.6666012053219902</v>
+        <v>0.7828421971437433</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N6">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P6">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q6">
-        <v>26.32568908009199</v>
+        <v>52.99211146957889</v>
       </c>
       <c r="R6">
-        <v>236.931201720828</v>
+        <v>476.92900322621</v>
       </c>
       <c r="S6">
-        <v>0.01481531262925696</v>
+        <v>0.02074708028296175</v>
       </c>
       <c r="T6">
-        <v>0.01481531262925696</v>
+        <v>0.02074708028296175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H7">
         <v>2.388977</v>
       </c>
       <c r="I7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J7">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N7">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O7">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P7">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q7">
-        <v>185.5637226454116</v>
+        <v>212.5584452559859</v>
       </c>
       <c r="R7">
-        <v>1670.073503808704</v>
+        <v>1913.026007303873</v>
       </c>
       <c r="S7">
-        <v>0.1044297285163749</v>
+        <v>0.08321931333268524</v>
       </c>
       <c r="T7">
-        <v>0.1044297285163749</v>
+        <v>0.08321931333268522</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H8">
         <v>2.388977</v>
       </c>
       <c r="I8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J8">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>155.120125</v>
       </c>
       <c r="O8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P8">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q8">
-        <v>41.17537898468056</v>
+        <v>41.17537898468055</v>
       </c>
       <c r="R8">
-        <v>370.578410862125</v>
+        <v>370.5784108621249</v>
       </c>
       <c r="S8">
-        <v>0.02317227520351948</v>
+        <v>0.01612068041423397</v>
       </c>
       <c r="T8">
-        <v>0.02317227520351949</v>
+        <v>0.01612068041423396</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H9">
         <v>2.388977</v>
       </c>
       <c r="I9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J9">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N9">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P9">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q9">
-        <v>6.982615319286556</v>
+        <v>6.155508480300554</v>
       </c>
       <c r="R9">
-        <v>62.84353787357901</v>
+        <v>55.39957632270499</v>
       </c>
       <c r="S9">
-        <v>0.003929607639531832</v>
+        <v>0.002409959238868244</v>
       </c>
       <c r="T9">
-        <v>0.003929607639531832</v>
+        <v>0.002409959238868244</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H10">
         <v>2.388977</v>
       </c>
       <c r="I10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J10">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N10">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O10">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P10">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q10">
-        <v>3.165301620338889</v>
+        <v>2.908288838631667</v>
       </c>
       <c r="R10">
-        <v>28.48771458305</v>
+        <v>26.174599547685</v>
       </c>
       <c r="S10">
-        <v>0.001781337344239818</v>
+        <v>0.001138631776463016</v>
       </c>
       <c r="T10">
-        <v>0.001781337344239819</v>
+        <v>0.001138631776463016</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.7963256666666667</v>
+        <v>0.7963256666666666</v>
       </c>
       <c r="H11">
         <v>2.388977</v>
       </c>
       <c r="I11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="J11">
-        <v>0.1363431968798167</v>
+        <v>0.1056895969732402</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N11">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P11">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q11">
-        <v>5.384521630905334</v>
+        <v>7.154334455162777</v>
       </c>
       <c r="R11">
-        <v>48.460694678148</v>
+        <v>64.38901009646499</v>
       </c>
       <c r="S11">
-        <v>0.003030248176150696</v>
+        <v>0.002801012210989771</v>
       </c>
       <c r="T11">
-        <v>0.003030248176150696</v>
+        <v>0.002801012210989771</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H12">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I12">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J12">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N12">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O12">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P12">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q12">
-        <v>43.84503634577066</v>
+        <v>34.45677639510944</v>
       </c>
       <c r="R12">
-        <v>394.605327111936</v>
+        <v>310.110987555985</v>
       </c>
       <c r="S12">
-        <v>0.02467467874164593</v>
+        <v>0.01349026272659065</v>
       </c>
       <c r="T12">
-        <v>0.02467467874164594</v>
+        <v>0.01349026272659065</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H13">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I13">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J13">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>155.120125</v>
       </c>
       <c r="O13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P13">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q13">
-        <v>9.728927413166666</v>
+        <v>6.674732800902778</v>
       </c>
       <c r="R13">
-        <v>87.5603467185</v>
+        <v>60.072595208125</v>
       </c>
       <c r="S13">
-        <v>0.005475150174982945</v>
+        <v>0.002613242111840473</v>
       </c>
       <c r="T13">
-        <v>0.005475150174982948</v>
+        <v>0.002613242111840473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H14">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I14">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J14">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N14">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P14">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q14">
-        <v>1.649853851270667</v>
+        <v>0.9978384018027776</v>
       </c>
       <c r="R14">
-        <v>14.848684661436</v>
+        <v>8.980545616224999</v>
       </c>
       <c r="S14">
-        <v>0.0009284885392664952</v>
+        <v>0.0003906663248077778</v>
       </c>
       <c r="T14">
-        <v>0.0009284885392664953</v>
+        <v>0.0003906663248077779</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H15">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I15">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J15">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N15">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O15">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P15">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q15">
-        <v>0.7478981484666666</v>
+        <v>0.4714480202583333</v>
       </c>
       <c r="R15">
-        <v>6.731083336199999</v>
+        <v>4.243032182325001</v>
       </c>
       <c r="S15">
-        <v>0.0004208947712884475</v>
+        <v>0.0001845778485569137</v>
       </c>
       <c r="T15">
-        <v>0.0004208947712884476</v>
+        <v>0.0001845778485569137</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.188156</v>
+        <v>0.1290883333333333</v>
       </c>
       <c r="H16">
-        <v>0.564468</v>
+        <v>0.387265</v>
       </c>
       <c r="I16">
-        <v>0.03221519991877542</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="J16">
-        <v>0.03221519991877543</v>
+        <v>0.01713280695956549</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N16">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P16">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q16">
-        <v>1.272255930448</v>
+        <v>1.159753037713889</v>
       </c>
       <c r="R16">
-        <v>11.450303374032</v>
+        <v>10.437777339425</v>
       </c>
       <c r="S16">
-        <v>0.000715987691591602</v>
+        <v>0.0004540579477696744</v>
       </c>
       <c r="T16">
-        <v>0.0007159876915916022</v>
+        <v>0.0004540579477696745</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H17">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I17">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J17">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N17">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O17">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P17">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q17">
-        <v>152.6160965587342</v>
+        <v>132.8116922882066</v>
       </c>
       <c r="R17">
-        <v>1373.544869028608</v>
+        <v>1195.305230593859</v>
       </c>
       <c r="S17">
-        <v>0.08588778724445123</v>
+        <v>0.05199745331908984</v>
       </c>
       <c r="T17">
-        <v>0.08588778724445126</v>
+        <v>0.05199745331908982</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H18">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I18">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J18">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>155.120125</v>
       </c>
       <c r="O18">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P18">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q18">
-        <v>33.86451578672222</v>
+        <v>25.72737938959722</v>
       </c>
       <c r="R18">
-        <v>304.7806420805</v>
+        <v>231.546414506375</v>
       </c>
       <c r="S18">
-        <v>0.01905793944813026</v>
+        <v>0.01007259365335176</v>
       </c>
       <c r="T18">
-        <v>0.01905793944813027</v>
+        <v>0.01007259365335175</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H19">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I19">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J19">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N19">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O19">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P19">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q19">
-        <v>5.742822350234223</v>
+        <v>3.846111582057222</v>
       </c>
       <c r="R19">
-        <v>51.685401152108</v>
+        <v>34.615004238515</v>
       </c>
       <c r="S19">
-        <v>0.003231889134379569</v>
+        <v>0.001505801213751944</v>
       </c>
       <c r="T19">
-        <v>0.00323188913437957</v>
+        <v>0.001505801213751944</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H20">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I20">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J20">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N20">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O20">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P20">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q20">
-        <v>2.603288890955556</v>
+        <v>1.817169681761667</v>
       </c>
       <c r="R20">
-        <v>23.4296000186</v>
+        <v>16.354527135855</v>
       </c>
       <c r="S20">
-        <v>0.00146505334262815</v>
+        <v>0.0007114448590506967</v>
       </c>
       <c r="T20">
-        <v>0.001465053342628151</v>
+        <v>0.0007114448590506965</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.6549346666666667</v>
+        <v>0.4975636666666667</v>
       </c>
       <c r="H21">
-        <v>1.964804</v>
+        <v>1.492691</v>
       </c>
       <c r="I21">
-        <v>0.1121348839282468</v>
+        <v>0.06603743367792279</v>
       </c>
       <c r="J21">
-        <v>0.1121348839282469</v>
+        <v>0.06603743367792278</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N21">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O21">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P21">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q21">
-        <v>4.428476975077333</v>
+        <v>4.470202372066111</v>
       </c>
       <c r="R21">
-        <v>39.856292775696</v>
+        <v>40.231821348595</v>
       </c>
       <c r="S21">
-        <v>0.002492214758657614</v>
+        <v>0.001750140632678562</v>
       </c>
       <c r="T21">
-        <v>0.002492214758657615</v>
+        <v>0.001750140632678562</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H22">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I22">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J22">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>233.0249173333333</v>
+        <v>266.9240163333333</v>
       </c>
       <c r="N22">
-        <v>699.074752</v>
+        <v>800.7720489999999</v>
       </c>
       <c r="O22">
-        <v>0.765932814443446</v>
+        <v>0.7873936103073201</v>
       </c>
       <c r="P22">
-        <v>0.765932814443446</v>
+        <v>0.78739361030732</v>
       </c>
       <c r="Q22">
-        <v>71.73244867758221</v>
+        <v>56.91167029447899</v>
       </c>
       <c r="R22">
-        <v>645.59203809824</v>
+        <v>512.205032650311</v>
       </c>
       <c r="S22">
-        <v>0.0403688826373086</v>
+        <v>0.02228163701902758</v>
       </c>
       <c r="T22">
-        <v>0.04036888263730861</v>
+        <v>0.02228163701902758</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H23">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I23">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J23">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>155.120125</v>
       </c>
       <c r="O23">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="P23">
-        <v>0.1699554927111273</v>
+        <v>0.1525285446808506</v>
       </c>
       <c r="Q23">
-        <v>15.91696220409722</v>
+        <v>11.024542403875</v>
       </c>
       <c r="R23">
-        <v>143.252659836875</v>
+        <v>99.220881634875</v>
       </c>
       <c r="S23">
-        <v>0.008957591592164438</v>
+        <v>0.004316247456329718</v>
       </c>
       <c r="T23">
-        <v>0.00895759159216444</v>
+        <v>0.004316247456329718</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H24">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I24">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J24">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.768542333333334</v>
+        <v>7.729888333333332</v>
       </c>
       <c r="N24">
-        <v>26.305627</v>
+        <v>23.189665</v>
       </c>
       <c r="O24">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="P24">
-        <v>0.02882144272292286</v>
+        <v>0.02280223700236483</v>
       </c>
       <c r="Q24">
-        <v>2.699235000707223</v>
+        <v>1.648112681215</v>
       </c>
       <c r="R24">
-        <v>24.293115006365</v>
+        <v>14.833014130935</v>
       </c>
       <c r="S24">
-        <v>0.001519048951525883</v>
+        <v>0.0006452569102132188</v>
       </c>
       <c r="T24">
-        <v>0.001519048951525883</v>
+        <v>0.0006452569102132187</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H25">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I25">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J25">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.974883333333333</v>
+        <v>3.652135</v>
       </c>
       <c r="N25">
-        <v>11.92465</v>
+        <v>10.956405</v>
       </c>
       <c r="O25">
-        <v>0.0130650988461861</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="P25">
-        <v>0.01306509884618611</v>
+        <v>0.01077335716164485</v>
       </c>
       <c r="Q25">
-        <v>1.223594961305555</v>
+        <v>0.778682659755</v>
       </c>
       <c r="R25">
-        <v>11.01235465175</v>
+        <v>7.008143937794999</v>
       </c>
       <c r="S25">
-        <v>0.000688602749511088</v>
+        <v>0.0003048640865378893</v>
       </c>
       <c r="T25">
-        <v>0.0006886027495110882</v>
+        <v>0.0003048640865378892</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3078316666666667</v>
+        <v>0.213213</v>
       </c>
       <c r="H26">
-        <v>0.923495</v>
+        <v>0.639639</v>
       </c>
       <c r="I26">
-        <v>0.05270551395117086</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="J26">
-        <v>0.05270551395117087</v>
+        <v>0.02829796524552828</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>6.761708</v>
+        <v>8.984181666666666</v>
       </c>
       <c r="N26">
-        <v>20.285124</v>
+        <v>26.952545</v>
       </c>
       <c r="O26">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="P26">
-        <v>0.02222515127631772</v>
+        <v>0.02650225084781963</v>
       </c>
       <c r="Q26">
-        <v>2.081467843153333</v>
+        <v>1.915544325695</v>
       </c>
       <c r="R26">
-        <v>18.73321058838</v>
+        <v>17.239898931255</v>
       </c>
       <c r="S26">
-        <v>0.001171388020660846</v>
+        <v>0.0007499597734198722</v>
       </c>
       <c r="T26">
-        <v>0.001171388020660847</v>
+        <v>0.0007499597734198721</v>
       </c>
     </row>
   </sheetData>
